--- a/2025-10-15/15_oddspedia_fixtures.xlsx
+++ b/2025-10-15/15_oddspedia_fixtures.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27 of 27 Tips</t>
+          <t>28 of 28 Tips</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -732,123 +732,123 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Valerenga Women vs Wolfsburg Women</t>
+          <t>Palmeiras vs Red Bull Bragantino</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wolfsburg Women</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15th Oct 17:45</t>
+          <t>15th Oct 23:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>19 of 22 Tips</t>
+          <t>19 of 19 Tips</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Palmeiras vs Red Bull Bragantino</t>
+          <t>Sevilla vs Mallorca</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15th Oct 23:00</t>
+          <t>18th Oct 13:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19 of 19 Tips</t>
+          <t>14 of 17 Tips</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.91</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sevilla vs Mallorca</t>
+          <t>Chelsea Women vs Paris FC Women</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Chelsea Women</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18th Oct 13:00</t>
+          <t>15th Oct 20:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14 of 17 Tips</t>
+          <t>13 of 14 Tips</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>93</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chelsea Women vs Paris FC Women</t>
+          <t>USC Landhaus Women vs Slavia Prague Women</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chelsea Women</t>
+          <t>USC Landhaus Women</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15th Oct 20:00</t>
+          <t>15th Oct 18:45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.90</t>
         </is>
       </c>
     </row>
